--- a/Katherine-scripts/All_methods.xlsx
+++ b/Katherine-scripts/All_methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherine/Desktop/research/potato-lankau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C2B5B4-64BE-EE43-B4D1-9F2AF9C48B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E61FA-8B93-F148-9D05-770EA27F82A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="460" windowWidth="25960" windowHeight="16280" xr2:uid="{F953657B-7A98-D74A-925E-657FB899ABE8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>Lasso2015</t>
   </si>
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAFC5C3-D6FC-1D49-BD22-42ACC13E585D}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,20 +575,22 @@
     <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5" style="1" customWidth="1"/>
-    <col min="11" max="12" width="18.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="18.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="44" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -602,46 +604,49 @@
         <v>2017</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -655,43 +660,46 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>6.686928E-3</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
         <v>5.024969E-2</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -705,43 +713,46 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>1.5465130000000001E-2</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
       <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>2.2982829999999999E-2</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
       <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -755,43 +766,46 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
       </c>
       <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>3.3845470000000002E-2</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
       <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>3.0242210000000001E-3</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
       <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -805,40 +819,43 @@
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>3.0933309999999999E-2</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -852,43 +869,46 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
         <v>3.4275930000000003E-2</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>1.8982160000000001E-3</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
       <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -902,43 +922,46 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>6.686928E-3</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
       <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>5.024969E-2</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
       <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -952,43 +975,46 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>1.5465130000000001E-2</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
       <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
         <v>2.2982829999999999E-2</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
       <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1002,43 +1028,46 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>1.51586E-2</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
       <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>3.8921429999999998E-3</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
       <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1052,40 +1081,43 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>1.908611E-2</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1099,43 +1131,46 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>1.792674E-2</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
       <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
         <v>9.6411360000000005E-4</v>
       </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
       <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1151,38 +1186,41 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
+      <c r="F12" s="5">
+        <v>1</v>
       </c>
       <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>7.7925980000000006E-2</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1205,34 +1243,37 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
       <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
       <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
         <v>0.1</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>200</v>
       </c>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1255,34 +1296,37 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>1E-3</v>
       </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
       <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
       <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
         <v>0.2</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>200</v>
       </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1296,43 +1340,46 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>6.8464229999999999E-3</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
       <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
         <v>7.9781850000000005E-3</v>
       </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
       <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="1">
         <v>0.5</v>
       </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1346,43 +1393,46 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <v>1.474145E-2</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
       <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
         <v>2.3239300000000001E-2</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
       <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="1">
         <v>0.5</v>
       </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1396,40 +1446,43 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
         <v>2.1635089999999999E-2</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
       <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
         <v>6.1893250000000005E-4</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
       <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1443,40 +1496,43 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
         <v>2.631147E-2</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
       <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
         <v>3.546968E-4</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
       <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1490,34 +1546,37 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
         <v>2.6264489999999999E-3</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
       <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
         <v>1.4553399999999999E-2</v>
       </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
       <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1531,34 +1590,37 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.1534257</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
       <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <v>8.2984829999999996E-2</v>
       </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
       <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1572,34 +1634,37 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
         <v>8.190501E-2</v>
       </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
       <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
         <v>3.8659859999999997E-2</v>
       </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
       <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1613,31 +1678,34 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.1116013</v>
       </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
+      <c r="I22" s="1">
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1651,30 +1719,33 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
         <v>8.1832279999999993E-2</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
       <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
         <v>3.522542E-2</v>
       </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
       <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>0</v>
       </c>
     </row>
